--- a/Anagrams/problems.xlsx
+++ b/Anagrams/problems.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHU\Desktop\exp_practice\Anagrams\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunzhu/Desktop/exp_practice/Anagrams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF6B53FB-8F40-4BF3-BEEC-AF260554A89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97107D7E-4891-094D-AA90-49EAA6A06862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10070" yWindow="-21710" windowWidth="38620" windowHeight="21100" xr2:uid="{9076367E-DC93-4AD2-8010-D63E87B4DAC3}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16900" xr2:uid="{9076367E-DC93-4AD2-8010-D63E87B4DAC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,30 +38,27 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>アナグラム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>正解</t>
-    <rPh sb="0" eb="2">
-      <t>セイカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ごりん</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>りんご</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>しな</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>なし</t>
+    <t>anagrams</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>answer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>plpae</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>apple</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>elnom</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>melon</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -69,7 +66,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,7 +111,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -130,7 +127,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -449,16 +446,16 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="23.09765625" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,7 +463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -474,7 +471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
